--- a/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE405_Introduction to Deep Learning/SEC_02_CHECK_LIST_405.xlsx
+++ b/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE405_Introduction to Deep Learning/SEC_02_CHECK_LIST_405.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\RMUTL_WORK\Teaching work\2025\เทอม_02\ENGCE405_Introduction to Deep Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F09A64-4E42-48EE-B50B-296ABFD2CA99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3DFFD8-33E2-44FE-BBE5-3B67A9119754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีราชมงคลล้านนา เชียงราย</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>✓</t>
+  </si>
+  <si>
+    <t>ข</t>
   </si>
 </sst>
 </file>
@@ -167,21 +170,21 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -489,359 +492,365 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.8"/>
   <cols>
-    <col min="1" max="1" width="5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15" style="4" customWidth="1"/>
-    <col min="3" max="3" width="45" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10" style="4" customWidth="1"/>
-    <col min="5" max="19" width="3" style="4" customWidth="1"/>
-    <col min="20" max="16384" width="8.7265625" style="4"/>
+    <col min="1" max="1" width="5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15" style="2" customWidth="1"/>
+    <col min="3" max="3" width="45" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10" style="2" customWidth="1"/>
+    <col min="5" max="19" width="3" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
+      <c r="E5" s="1">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
+      <c r="E6" s="1">
+        <v>27</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>1</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7" t="s">
+      <c r="D8" s="7"/>
+      <c r="E8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>2</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7" t="s">
+      <c r="D9" s="7"/>
+      <c r="E9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>3</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="7" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <v>4</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="7" t="s">
+      <c r="D11" s="7"/>
+      <c r="E11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A12" s="5">
+      <c r="A12" s="3">
         <v>5</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="7" t="s">
+      <c r="D12" s="7"/>
+      <c r="E12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A13" s="5">
+      <c r="A13" s="3">
         <v>6</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE405_Introduction to Deep Learning/SEC_02_CHECK_LIST_405.xlsx
+++ b/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE405_Introduction to Deep Learning/SEC_02_CHECK_LIST_405.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\RMUTL_WORK\Teaching work\2025\เทอม_02\ENGCE405_Introduction to Deep Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3DFFD8-33E2-44FE-BBE5-3B67A9119754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCB42FF-6E8A-490D-B894-430098421AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีราชมงคลล้านนา เชียงราย</t>
   </si>
@@ -492,7 +492,7 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.8"/>
@@ -613,7 +613,9 @@
       <c r="E5" s="1">
         <v>11</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1">
+        <v>12</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -638,7 +640,9 @@
       <c r="E6" s="1">
         <v>27</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1">
+        <v>4</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -663,7 +667,9 @@
       <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -692,7 +698,9 @@
       <c r="E8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -721,7 +729,9 @@
       <c r="E9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -750,7 +760,9 @@
       <c r="E10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -779,7 +791,9 @@
       <c r="E11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -808,7 +822,9 @@
       <c r="E12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -837,7 +853,9 @@
       <c r="E13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="3"/>
+      <c r="F13" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>

--- a/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE405_Introduction to Deep Learning/SEC_02_CHECK_LIST_405.xlsx
+++ b/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE405_Introduction to Deep Learning/SEC_02_CHECK_LIST_405.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\RMUTL_WORK\Teaching work\2025\เทอม_02\ENGCE405_Introduction to Deep Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCB42FF-6E8A-490D-B894-430098421AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D0B0F6-8136-47B8-9202-7B080B9F23F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีราชมงคลล้านนา เชียงราย</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>ข</t>
+  </si>
+  <si>
+    <t>ล</t>
   </si>
 </sst>
 </file>
@@ -178,13 +181,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -492,7 +495,7 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.8"/>
@@ -506,105 +509,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -616,7 +619,9 @@
       <c r="F5" s="1">
         <v>12</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1">
+        <v>12</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -631,9 +636,9 @@
       <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
@@ -643,7 +648,9 @@
       <c r="F6" s="1">
         <v>4</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1">
+        <v>11</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -658,9 +665,9 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
@@ -670,7 +677,9 @@
       <c r="F7" s="1">
         <v>2</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -691,17 +700,19 @@
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -722,17 +733,19 @@
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="5"/>
       <c r="E9" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -753,17 +766,19 @@
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="5"/>
       <c r="E10" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -784,17 +799,19 @@
       <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" s="5"/>
       <c r="E11" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -815,17 +832,19 @@
       <c r="B12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="3"/>
+      <c r="G12" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -846,17 +865,19 @@
       <c r="B13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="5"/>
       <c r="E13" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="3"/>
+      <c r="G13" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -873,12 +894,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="13">
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -886,6 +901,12 @@
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE405_Introduction to Deep Learning/SEC_02_CHECK_LIST_405.xlsx
+++ b/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE405_Introduction to Deep Learning/SEC_02_CHECK_LIST_405.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\RMUTL_WORK\Teaching work\2025\เทอม_02\ENGCE405_Introduction to Deep Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D0B0F6-8136-47B8-9202-7B080B9F23F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26F5DE6-A115-47C9-BEA9-F101537914B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีราชมงคลล้านนา เชียงราย</t>
   </si>
@@ -171,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -181,13 +181,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -495,7 +498,7 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.8"/>
@@ -622,7 +625,9 @@
       <c r="G5" s="1">
         <v>12</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1">
+        <v>12</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -651,7 +656,9 @@
       <c r="G6" s="1">
         <v>11</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1">
+        <v>18</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -680,7 +687,9 @@
       <c r="G7" s="1">
         <v>3</v>
       </c>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1">
+        <v>4</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -700,10 +709,10 @@
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="4" t="s">
         <v>22</v>
       </c>
@@ -713,7 +722,9 @@
       <c r="G8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -733,10 +744,10 @@
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="8"/>
       <c r="E9" s="4" t="s">
         <v>22</v>
       </c>
@@ -746,7 +757,9 @@
       <c r="G9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -766,10 +779,10 @@
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="8"/>
       <c r="E10" s="4" t="s">
         <v>22</v>
       </c>
@@ -779,7 +792,9 @@
       <c r="G10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="3"/>
+      <c r="H10" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -799,10 +814,10 @@
       <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="8"/>
       <c r="E11" s="4" t="s">
         <v>22</v>
       </c>
@@ -812,7 +827,9 @@
       <c r="G11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="3"/>
+      <c r="H11" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -832,10 +849,10 @@
       <c r="B12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="8"/>
       <c r="E12" s="4" t="s">
         <v>22</v>
       </c>
@@ -845,7 +862,9 @@
       <c r="G12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="3"/>
+      <c r="H12" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -865,10 +884,10 @@
       <c r="B13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="8"/>
       <c r="E13" s="4" t="s">
         <v>23</v>
       </c>
@@ -878,7 +897,9 @@
       <c r="G13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="3"/>
+      <c r="H13" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -894,6 +915,12 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="13">
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -901,12 +928,6 @@
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE405_Introduction to Deep Learning/SEC_02_CHECK_LIST_405.xlsx
+++ b/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE405_Introduction to Deep Learning/SEC_02_CHECK_LIST_405.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\RMUTL_WORK\Teaching work\2025\เทอม_02\ENGCE405_Introduction to Deep Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26F5DE6-A115-47C9-BEA9-F101537914B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10F53C1-E18A-41B5-86FE-D48358427993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีราชมงคลล้านนา เชียงราย</t>
   </si>
@@ -184,13 +184,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -498,7 +498,7 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.8"/>
@@ -512,105 +512,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -628,7 +628,9 @@
       <c r="H5" s="1">
         <v>12</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -641,9 +643,9 @@
       <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
@@ -659,7 +661,9 @@
       <c r="H6" s="1">
         <v>18</v>
       </c>
-      <c r="I6" s="1"/>
+      <c r="I6" s="1">
+        <v>9</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -672,9 +676,9 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
@@ -690,7 +694,9 @@
       <c r="H7" s="1">
         <v>4</v>
       </c>
-      <c r="I7" s="1"/>
+      <c r="I7" s="1">
+        <v>5</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -709,10 +715,10 @@
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="4" t="s">
         <v>22</v>
       </c>
@@ -725,7 +731,9 @@
       <c r="H8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="3"/>
+      <c r="I8" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -744,10 +752,10 @@
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="4" t="s">
         <v>22</v>
       </c>
@@ -760,7 +768,9 @@
       <c r="H9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="3"/>
+      <c r="I9" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -779,10 +789,10 @@
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="4" t="s">
         <v>22</v>
       </c>
@@ -795,7 +805,9 @@
       <c r="H10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="3"/>
+      <c r="I10" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -814,10 +826,10 @@
       <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="4" t="s">
         <v>22</v>
       </c>
@@ -830,7 +842,9 @@
       <c r="H11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="3"/>
+      <c r="I11" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -849,10 +863,10 @@
       <c r="B12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="4" t="s">
         <v>22</v>
       </c>
@@ -865,7 +879,9 @@
       <c r="H12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="3"/>
+      <c r="I12" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -884,10 +900,10 @@
       <c r="B13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="6"/>
       <c r="E13" s="4" t="s">
         <v>23</v>
       </c>
@@ -900,7 +916,9 @@
       <c r="H13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="3"/>
+      <c r="I13" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -915,12 +933,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="13">
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -928,6 +940,12 @@
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE405_Introduction to Deep Learning/SEC_02_CHECK_LIST_405.xlsx
+++ b/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE405_Introduction to Deep Learning/SEC_02_CHECK_LIST_405.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\RMUTL_WORK\Teaching work\2025\เทอม_02\ENGCE405_Introduction to Deep Learning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\WORK\RMUTL_WORK\Teaching work\2025\เทอม_02\ENGCE405_Introduction to Deep Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10F53C1-E18A-41B5-86FE-D48358427993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF3E91B-E33A-4616-9880-9311736C8062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10860" yWindow="2535" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ประวัติการศึกษา" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="25">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีราชมงคลล้านนา เชียงราย</t>
   </si>
@@ -184,16 +184,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
@@ -498,119 +498,119 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.8"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="24" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="5" style="2" customWidth="1"/>
     <col min="2" max="2" width="15" style="2" customWidth="1"/>
     <col min="3" max="3" width="45" style="2" customWidth="1"/>
     <col min="4" max="4" width="10" style="2" customWidth="1"/>
     <col min="5" max="19" width="3" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="8.7265625" style="2"/>
+    <col min="20" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A3" s="7" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A4" s="7" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A5" s="8" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -631,7 +631,9 @@
       <c r="I5" s="1">
         <v>1</v>
       </c>
-      <c r="J5" s="1"/>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -642,10 +644,10 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
@@ -664,7 +666,9 @@
       <c r="I6" s="1">
         <v>9</v>
       </c>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1">
+        <v>22</v>
+      </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -675,10 +679,10 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
@@ -697,7 +701,9 @@
       <c r="I7" s="1">
         <v>5</v>
       </c>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1">
+        <v>6</v>
+      </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -708,17 +714,17 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.8">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3">
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="4" t="s">
         <v>22</v>
       </c>
@@ -734,7 +740,9 @@
       <c r="I8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="3"/>
+      <c r="J8" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -745,17 +753,17 @@
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.8">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3">
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="8"/>
       <c r="E9" s="4" t="s">
         <v>22</v>
       </c>
@@ -771,7 +779,9 @@
       <c r="I9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="3"/>
+      <c r="J9" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -782,17 +792,17 @@
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.8">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3">
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="8"/>
       <c r="E10" s="4" t="s">
         <v>22</v>
       </c>
@@ -808,7 +818,9 @@
       <c r="I10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="3"/>
+      <c r="J10" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
@@ -819,17 +831,17 @@
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.8">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3">
         <v>4</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="8"/>
       <c r="E11" s="4" t="s">
         <v>22</v>
       </c>
@@ -845,7 +857,9 @@
       <c r="I11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="3"/>
+      <c r="J11" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -856,17 +870,17 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.8">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3">
         <v>5</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="8"/>
       <c r="E12" s="4" t="s">
         <v>22</v>
       </c>
@@ -882,7 +896,9 @@
       <c r="I12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J12" s="3"/>
+      <c r="J12" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -893,17 +909,17 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.8">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3">
         <v>6</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="8"/>
       <c r="E13" s="4" t="s">
         <v>23</v>
       </c>
@@ -919,7 +935,9 @@
       <c r="I13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="3"/>
+      <c r="J13" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -933,6 +951,12 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="13">
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -940,12 +964,6 @@
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE405_Introduction to Deep Learning/SEC_02_CHECK_LIST_405.xlsx
+++ b/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE405_Introduction to Deep Learning/SEC_02_CHECK_LIST_405.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\WORK\RMUTL_WORK\Teaching work\2025\เทอม_02\ENGCE405_Introduction to Deep Learning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\RMUTL_WORK\Teaching work\2025\เทอม_02\ENGCE405_Introduction to Deep Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF3E91B-E33A-4616-9880-9311736C8062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99714B5-9D33-427D-A4B1-D7212B6ABCEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10860" yWindow="2535" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ประวัติการศึกษา" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="25">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีราชมงคลล้านนา เชียงราย</t>
   </si>
@@ -184,16 +184,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
@@ -498,119 +498,119 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="24" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="24" x14ac:dyDescent="0.8"/>
   <cols>
     <col min="1" max="1" width="5" style="2" customWidth="1"/>
     <col min="2" max="2" width="15" style="2" customWidth="1"/>
     <col min="3" max="3" width="45" style="2" customWidth="1"/>
     <col min="4" max="4" width="10" style="2" customWidth="1"/>
     <col min="5" max="19" width="3" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="8.7109375" style="2"/>
+    <col min="20" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.8">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.8">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="6" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.8">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="6" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.8">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="7" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.8">
+      <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -634,7 +634,9 @@
       <c r="J5" s="1">
         <v>1</v>
       </c>
-      <c r="K5" s="1"/>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -644,10 +646,10 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.8">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
@@ -669,7 +671,9 @@
       <c r="J6" s="1">
         <v>22</v>
       </c>
-      <c r="K6" s="1"/>
+      <c r="K6" s="1">
+        <v>31</v>
+      </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -679,10 +683,10 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.8">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
@@ -704,7 +708,9 @@
       <c r="J7" s="1">
         <v>6</v>
       </c>
-      <c r="K7" s="1"/>
+      <c r="K7" s="1">
+        <v>7</v>
+      </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -714,17 +720,17 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A8" s="3">
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="4" t="s">
         <v>22</v>
       </c>
@@ -743,7 +749,9 @@
       <c r="J8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="3"/>
+      <c r="K8" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -753,17 +761,17 @@
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A9" s="3">
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="4" t="s">
         <v>22</v>
       </c>
@@ -782,7 +790,9 @@
       <c r="J9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="3"/>
+      <c r="K9" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -792,17 +802,17 @@
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A10" s="3">
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="4" t="s">
         <v>22</v>
       </c>
@@ -821,7 +831,9 @@
       <c r="J10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="3"/>
+      <c r="K10" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
@@ -831,17 +843,17 @@
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A11" s="3">
         <v>4</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="4" t="s">
         <v>22</v>
       </c>
@@ -860,7 +872,9 @@
       <c r="J11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="3"/>
+      <c r="K11" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
@@ -870,17 +884,17 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A12" s="3">
         <v>5</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="4" t="s">
         <v>22</v>
       </c>
@@ -899,7 +913,9 @@
       <c r="J12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="3"/>
+      <c r="K12" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
@@ -909,17 +925,17 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A13" s="3">
         <v>6</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="6"/>
       <c r="E13" s="4" t="s">
         <v>23</v>
       </c>
@@ -938,7 +954,9 @@
       <c r="J13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="3"/>
+      <c r="K13" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
@@ -951,12 +969,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="13">
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -964,6 +976,12 @@
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE405_Introduction to Deep Learning/SEC_02_CHECK_LIST_405.xlsx
+++ b/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE405_Introduction to Deep Learning/SEC_02_CHECK_LIST_405.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\RMUTL_WORK\Teaching work\2025\เทอม_02\ENGCE405_Introduction to Deep Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99714B5-9D33-427D-A4B1-D7212B6ABCEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66C8650-A4C5-4D40-8D4F-0CD563F4A726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="25">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีราชมงคลล้านนา เชียงราย</t>
   </si>
@@ -171,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -184,13 +184,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -498,7 +501,7 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="24" x14ac:dyDescent="0.8"/>
@@ -637,7 +640,9 @@
       <c r="K5" s="1">
         <v>1</v>
       </c>
-      <c r="L5" s="1"/>
+      <c r="L5" s="6">
+        <v>2</v>
+      </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -674,7 +679,9 @@
       <c r="K6" s="1">
         <v>31</v>
       </c>
-      <c r="L6" s="1"/>
+      <c r="L6" s="6">
+        <v>7</v>
+      </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -711,7 +718,9 @@
       <c r="K7" s="1">
         <v>7</v>
       </c>
-      <c r="L7" s="1"/>
+      <c r="L7" s="6">
+        <v>8</v>
+      </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -727,10 +736,10 @@
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="4" t="s">
         <v>22</v>
       </c>
@@ -752,7 +761,9 @@
       <c r="K8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="3"/>
+      <c r="L8" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
@@ -768,10 +779,10 @@
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="4" t="s">
         <v>22</v>
       </c>
@@ -793,7 +804,9 @@
       <c r="K9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="3"/>
+      <c r="L9" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -809,10 +822,10 @@
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="9"/>
       <c r="E10" s="4" t="s">
         <v>22</v>
       </c>
@@ -834,7 +847,9 @@
       <c r="K10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="3"/>
+      <c r="L10" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -850,10 +865,10 @@
       <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="4" t="s">
         <v>22</v>
       </c>
@@ -875,7 +890,9 @@
       <c r="K11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="3"/>
+      <c r="L11" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
@@ -891,10 +908,10 @@
       <c r="B12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="4" t="s">
         <v>22</v>
       </c>
@@ -916,7 +933,9 @@
       <c r="K12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="3"/>
+      <c r="L12" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
@@ -932,10 +951,10 @@
       <c r="B13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="4" t="s">
         <v>23</v>
       </c>
@@ -957,7 +976,9 @@
       <c r="K13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L13" s="3"/>
+      <c r="L13" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
@@ -969,6 +990,12 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="13">
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -976,12 +1003,6 @@
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE405_Introduction to Deep Learning/SEC_02_CHECK_LIST_405.xlsx
+++ b/RMUTL_WORK/Teaching work/2025/เทอม_02/ENGCE405_Introduction to Deep Learning/SEC_02_CHECK_LIST_405.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\RMUTL_WORK\Teaching work\2025\เทอม_02\ENGCE405_Introduction to Deep Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66C8650-A4C5-4D40-8D4F-0CD563F4A726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D6824B-184A-4ED5-BB73-A6DE9BF706F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="25">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีราชมงคลล้านนา เชียงราย</t>
   </si>
@@ -187,13 +187,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -501,7 +501,7 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="24" x14ac:dyDescent="0.8"/>
@@ -515,105 +515,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -643,7 +643,9 @@
       <c r="L5" s="6">
         <v>2</v>
       </c>
-      <c r="M5" s="1"/>
+      <c r="M5" s="1">
+        <v>2</v>
+      </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -652,9 +654,9 @@
       <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
@@ -682,7 +684,9 @@
       <c r="L6" s="6">
         <v>7</v>
       </c>
-      <c r="M6" s="1"/>
+      <c r="M6" s="1">
+        <v>20</v>
+      </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -691,9 +695,9 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
@@ -721,7 +725,9 @@
       <c r="L7" s="6">
         <v>8</v>
       </c>
-      <c r="M7" s="1"/>
+      <c r="M7" s="1">
+        <v>9</v>
+      </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -736,10 +742,10 @@
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="7"/>
       <c r="E8" s="4" t="s">
         <v>22</v>
       </c>
@@ -764,7 +770,9 @@
       <c r="L8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="3"/>
+      <c r="M8" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
@@ -779,10 +787,10 @@
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="9"/>
+      <c r="D9" s="7"/>
       <c r="E9" s="4" t="s">
         <v>22</v>
       </c>
@@ -807,7 +815,9 @@
       <c r="L9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="3"/>
+      <c r="M9" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
@@ -822,10 +832,10 @@
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="9"/>
+      <c r="D10" s="7"/>
       <c r="E10" s="4" t="s">
         <v>22</v>
       </c>
@@ -850,7 +860,9 @@
       <c r="L10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="3"/>
+      <c r="M10" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
@@ -865,10 +877,10 @@
       <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="9"/>
+      <c r="D11" s="7"/>
       <c r="E11" s="4" t="s">
         <v>22</v>
       </c>
@@ -893,7 +905,9 @@
       <c r="L11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="M11" s="3"/>
+      <c r="M11" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
@@ -908,10 +922,10 @@
       <c r="B12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="9"/>
+      <c r="D12" s="7"/>
       <c r="E12" s="4" t="s">
         <v>22</v>
       </c>
@@ -936,7 +950,9 @@
       <c r="L12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="M12" s="3"/>
+      <c r="M12" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
@@ -951,10 +967,10 @@
       <c r="B13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="9"/>
+      <c r="D13" s="7"/>
       <c r="E13" s="4" t="s">
         <v>23</v>
       </c>
@@ -979,7 +995,9 @@
       <c r="L13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="M13" s="3"/>
+      <c r="M13" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
@@ -990,12 +1008,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="13">
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -1003,6 +1015,12 @@
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
